--- a/Project assest list example.xlsx
+++ b/Project assest list example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle.jamison\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle.jamison\Desktop\Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>In progress</t>
   </si>
@@ -99,12 +99,6 @@
     <t>Not Started/Assigned To</t>
   </si>
   <si>
-    <t>Start/Win Music</t>
-  </si>
-  <si>
-    <t>Lose Music</t>
-  </si>
-  <si>
     <t>Windmill</t>
   </si>
   <si>
@@ -124,6 +118,24 @@
   </si>
   <si>
     <t>deep fly buzz</t>
+  </si>
+  <si>
+    <t>Jump Sound</t>
+  </si>
+  <si>
+    <t>select sound</t>
+  </si>
+  <si>
+    <t>Game Music</t>
+  </si>
+  <si>
+    <t>Menu Music</t>
+  </si>
+  <si>
+    <t>Fly Death</t>
+  </si>
+  <si>
+    <t>Stoped Walking</t>
   </si>
 </sst>
 </file>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,51 +748,71 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -802,6 +834,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0C5AAC1B3A5834698B991C8B7BE0A43" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8bfae07456ed53bf096f88a87e9c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c372ca1-4d00-4da0-9d60-1d24f5b7546b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3317282adf720fe49703ecb68c6f20" ns2:_="">
     <xsd:import namespace="2c372ca1-4d00-4da0-9d60-1d24f5b7546b"/>
@@ -947,22 +994,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8B4A51-A72D-4F05-84AE-D0EEBFFC2F6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -978,21 +1027,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515DB3B-AFD4-479F-850C-E15ACF9C8EE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2AA6DC-D7DC-43A1-8030-BE38C0100496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>